--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>949972.9509086653</v>
+        <v>942346.5010809145</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564206</v>
+        <v>189902.9539564199</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>9102620.618728805</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>5.804409982263546</v>
       </c>
       <c r="U2" t="n">
-        <v>12.94700897198947</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755695</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>84.45262105857543</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -838,7 +838,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>285.6410909649537</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>197.4083929851558</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,10 +1072,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>52.10844059186275</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>260.7068467983136</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>88.77970458968757</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,10 +1309,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>52.10844059186288</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>34.45403149117918</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.3138620892173</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>238.8517495102342</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>52.10844059186275</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.5196897930034</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,10 +1622,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>307.989590223367</v>
+        <v>159.5623709710786</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>135.0393428231425</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>235.5199567647624</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1862,7 +1862,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>119.0805886067736</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,16 +2090,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>123.081514332807</v>
       </c>
       <c r="G20" t="n">
-        <v>339.0399185806818</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>17.72813013148757</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>43.99240337009277</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2324,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>93.1068961871009</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>59.66385641544548</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>118.9283458032787</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>249.0529787410936</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>381.6269365471937</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>39.97867126637443</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>334.5817096732204</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>319.3940307068634</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>18.71042305649407</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,19 +3032,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>41.74902605370956</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228949</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>37.83808333974849</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>23.02457248166897</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>317.3735290007863</v>
       </c>
       <c r="G35" t="n">
-        <v>352.0426595656929</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>29.35994366372752</v>
       </c>
       <c r="T37" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>351.2391879744742</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>78.14109718068178</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>20.933903751214</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>155.211488636581</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>284.5615160058696</v>
+        <v>20.55921871959442</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>7.63449079966186</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>49.3064241939797</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3983,19 +3983,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>196.5844386502394</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>327.9428964074127</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554011</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>101.780687729549</v>
+        <v>60.92600812502334</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>576.3714747656866</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>207.4089578252748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2691.286050632098</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.407947680385</v>
+        <v>2437.52426527019</v>
       </c>
       <c r="V2" t="n">
-        <v>2079.345060336814</v>
+        <v>2106.461377926619</v>
       </c>
       <c r="W2" t="n">
-        <v>1726.5764050667</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="X2" t="n">
-        <v>1353.11064680562</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.9713148298083</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4428,28 +4428,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>906.9212171249367</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>906.9212171249367</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>906.9212171249367</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>495.9353123353291</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2497.746673861499</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2497.746673861499</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2497.746673861499</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2497.746673861499</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2497.746673861499</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,10 +4653,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240413</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261309</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644633</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>106.5777702969935</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>709.5665374816297</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>644.4779510755875</v>
+        <v>808.6937513590203</v>
       </c>
       <c r="C8" t="n">
-        <v>644.4779510755875</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D8" t="n">
-        <v>644.4779510755875</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E8" t="n">
-        <v>644.4779510755875</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F8" t="n">
-        <v>644.4779510755875</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646715</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.682881376601</v>
+        <v>1958.898681660034</v>
       </c>
       <c r="X8" t="n">
-        <v>1421.217123115521</v>
+        <v>1585.432923398954</v>
       </c>
       <c r="Y8" t="n">
-        <v>1031.077791139709</v>
+        <v>1195.293591423142</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240414</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261311</v>
+        <v>551.8221175621458</v>
       </c>
       <c r="G10" t="n">
-        <v>264.3261428644635</v>
+        <v>382.8223173004782</v>
       </c>
       <c r="H10" t="n">
-        <v>106.5777702969936</v>
+        <v>225.0739447330083</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>88.74503383165654</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1595.875667274027</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="C11" t="n">
-        <v>1595.875667274027</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5042,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2279.707209887712</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>1948.644322544141</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>1595.875667274027</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>1595.875667274027</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y11" t="n">
-        <v>1595.875667274027</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5139,22 +5139,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E13" t="n">
-        <v>580.2158906240413</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F13" t="n">
-        <v>433.3259431261309</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G13" t="n">
-        <v>264.3261428644633</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>106.5777702969935</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2307.009759042411</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C14" t="n">
-        <v>1938.047242101999</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.781543495249</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E14" t="n">
-        <v>1193.993290897004</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F14" t="n">
-        <v>783.0073861073968</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G14" t="n">
-        <v>365.0435780055836</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5321,7 +5321,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.009759042411</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5355,43 +5355,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>562.3086884710233</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124031</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2323.103882821189</v>
+        <v>1559.428949058529</v>
       </c>
       <c r="C17" t="n">
-        <v>1954.141365880777</v>
+        <v>1190.466432118118</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5540,25 +5540,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2576.865668183098</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>2323.103882821189</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V17" t="n">
-        <v>2323.103882821189</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W17" t="n">
-        <v>2323.103882821189</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.103882821189</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y17" t="n">
-        <v>2323.103882821189</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5592,43 +5592,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5695,19 +5695,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1920.409918978289</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="C20" t="n">
-        <v>1551.447402037878</v>
+        <v>1820.94619904841</v>
       </c>
       <c r="D20" t="n">
-        <v>1193.181703431127</v>
+        <v>1462.68050044166</v>
       </c>
       <c r="E20" t="n">
-        <v>807.393450832883</v>
+        <v>1076.892247843415</v>
       </c>
       <c r="F20" t="n">
-        <v>396.4075460432754</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,34 +5768,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018223</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018223</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2307.009759042411</v>
+        <v>2189.908715988822</v>
       </c>
     </row>
     <row r="21">
@@ -5805,73 +5805,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.37975290126624</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C22" t="n">
-        <v>98.37975290126624</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D22" t="n">
-        <v>98.37975290126624</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="E22" t="n">
-        <v>98.37975290126624</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F22" t="n">
-        <v>98.37975290126624</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5917,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>500.8207968750361</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U22" t="n">
-        <v>500.8207968750361</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V22" t="n">
-        <v>500.8207968750361</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W22" t="n">
-        <v>500.8207968750361</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X22" t="n">
-        <v>500.8207968750361</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y22" t="n">
-        <v>280.0282177315059</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755379</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082163</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2603.101721132262</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="X23" t="n">
-        <v>2354.684526795312</v>
+        <v>1975.874177509273</v>
       </c>
       <c r="Y23" t="n">
-        <v>1964.5451948195</v>
+        <v>1585.734845533462</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C25" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D25" t="n">
-        <v>517.7458231623355</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E25" t="n">
-        <v>369.8327295799424</v>
+        <v>500.820796875036</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6154,43 +6154,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1194.175505447095</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C26" t="n">
-        <v>825.2129885066831</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D26" t="n">
-        <v>825.2129885066831</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>439.4247359084389</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6227,10 +6227,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487028</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1580.775345511217</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>230.6543889503772</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>230.6543889503772</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6415,19 +6415,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.94416071721</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="C29" t="n">
-        <v>1546.94416071721</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D29" t="n">
-        <v>1188.678462110459</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E29" t="n">
-        <v>802.8902095122148</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>391.9043047226073</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018223</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018223</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1240.856471184028</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>850.7171392082162</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6585,7 +6585,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>2368.610678690072</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>2199.610878428405</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>2041.862505860935</v>
       </c>
       <c r="I31" t="n">
         <v>2022.963088632153</v>
@@ -6625,46 +6625,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>2566.821187183472</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>2277.64757683804</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V31" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1979.48636361053</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>1610.523846670118</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>1252.258148063368</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785527</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889451</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6734,16 +6734,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757142</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.54400078133</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="33">
@@ -6774,13 +6774,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
         <v>713.8062203571349</v>
@@ -6798,7 +6798,7 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2191.899271560059</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632152</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632152</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632152</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632152</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.26528169842</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
         <v>2206.839139259579</v>
@@ -6886,22 +6886,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>2469.840903686824</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>2446.583759765946</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>2191.899271560059</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W34" t="n">
-        <v>2191.899271560059</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X34" t="n">
-        <v>2191.899271560059</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y34" t="n">
-        <v>2191.899271560059</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1933.544000781331</v>
+        <v>743.4848209837926</v>
       </c>
       <c r="C35" t="n">
-        <v>1564.581483840919</v>
+        <v>374.5223040433809</v>
       </c>
       <c r="D35" t="n">
-        <v>1206.315785234169</v>
+        <v>374.5223040433809</v>
       </c>
       <c r="E35" t="n">
-        <v>820.5275326359244</v>
+        <v>374.5223040433809</v>
       </c>
       <c r="F35" t="n">
-        <v>409.5416278463169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6965,22 +6965,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1130.084661047914</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7020,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E37" t="n">
         <v>2022.963088632153</v>
@@ -7114,31 +7114,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="T37" t="n">
-        <v>2471.7452186737</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="U37" t="n">
-        <v>2471.7452186737</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="V37" t="n">
-        <v>2471.7452186737</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="W37" t="n">
-        <v>2471.7452186737</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="X37" t="n">
-        <v>2243.755667775683</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>2489.929004554789</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D38" t="n">
-        <v>819.715945170047</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E38" t="n">
-        <v>819.715945170047</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F38" t="n">
-        <v>408.7300403804394</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>1583.553172936862</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7339,43 +7339,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T40" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U40" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V40" t="n">
-        <v>274.7355609638946</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W40" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1865.381229508782</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C41" t="n">
-        <v>1496.41871256837</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D41" t="n">
-        <v>1138.15301396162</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="E41" t="n">
-        <v>752.3647613633757</v>
+        <v>812.8904941695191</v>
       </c>
       <c r="F41" t="n">
-        <v>341.3788565737681</v>
+        <v>401.9045893799116</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X41" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2251.981069572904</v>
+        <v>1954.241103772297</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C43" t="n">
-        <v>559.1928012785273</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D43" t="n">
-        <v>409.0761618661916</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="E43" t="n">
-        <v>409.0761618661916</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>409.0761618661916</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>240.076361604524</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1112.426648284105</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="C44" t="n">
-        <v>743.4641313436935</v>
+        <v>1920.38922933819</v>
       </c>
       <c r="D44" t="n">
-        <v>385.1984327369429</v>
+        <v>1562.12353073144</v>
       </c>
       <c r="E44" t="n">
-        <v>385.1984327369429</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F44" t="n">
-        <v>385.1984327369429</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7667,7 +7667,7 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7676,22 +7676,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1485.892406545185</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X44" t="n">
-        <v>1112.426648284105</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="Y44" t="n">
-        <v>1112.426648284105</v>
+        <v>2289.351746278602</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
         <v>505.8730812692495</v>
@@ -7722,28 +7722,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7813,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="X46" t="n">
-        <v>625.3202087220412</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y46" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599052</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,13 +22556,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>210.6439103753943</v>
       </c>
       <c r="U2" t="n">
-        <v>238.2771585362998</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.0571403890122</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>82.85718120047548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -22781,25 +22781,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>128.1430790558413</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,19 +22829,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>19.03992737250204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,7 +22948,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22960,10 +22960,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>82.85718120047548</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>128.2883697226011</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23021,25 +23021,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>153.0773232224814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,22 +23066,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>260.4612641277254</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23185,7 +23185,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23197,10 +23197,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>82.85718120047534</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>10.74592769735783</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>47.41997957426332</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>12.37241799805514</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,22 +23422,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>82.85718120047548</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>11.62584915701547</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>15.93318254099017</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23668,13 +23668,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.62584915701532</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23735,13 +23735,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>119.1630848559205</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23780,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>97.3677317508842</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23935,7 +23935,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>52.02592219651751</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,16 +23978,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>283.7945314089045</v>
       </c>
       <c r="G20" t="n">
-        <v>74.74425144011315</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -24026,7 +24026,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>130.8873428867248</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.3173988889581</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24175,10 +24175,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24212,13 +24212,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24257,10 +24257,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>123.3414241705569</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>107.5829646831824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>26.4927022196525</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24415,7 +24415,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>133.680862922387</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>25.24910919451776</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>116.1922175754207</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24655,16 +24655,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>96.68503059263386</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>79.20246034757463</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>50.33706997160567</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>116.2551987358442</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24889,13 +24889,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,19 +24920,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>340.1813440185522</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049790008</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24974,16 +24974,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>107.5829646831828</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25126,13 +25126,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>263.2573017603087</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>89.50251674092516</v>
       </c>
       <c r="G35" t="n">
-        <v>61.74151045510206</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25205,13 +25205,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25354,16 +25354,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>182.7855952862914</v>
       </c>
       <c r="T37" t="n">
-        <v>1.885271837007139</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25375,10 +25375,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,10 +25403,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>62.54498204632074</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>271.0998715367313</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25591,13 +25591,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>191.2116351988049</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25606,16 +25606,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>96.92615468724699</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>129.2226540149254</v>
+        <v>393.2249513012006</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>138.7994718469073</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>106.8644646478155</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>45.199959188537</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>185.3459314220224</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>85.84127361338227</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25916,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26065,13 +26065,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9289676594881</v>
+        <v>164.7836472640138</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758313.1631806012</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806014</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806016</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="D2" t="n">
         <v>289152.6100157576</v>
@@ -26323,37 +26323,37 @@
         <v>289152.6100157576</v>
       </c>
       <c r="F2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="G2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="H2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="I2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="J2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="K2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="L2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="O2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="P2" t="n">
         <v>289152.6100157576</v>
-      </c>
-      <c r="K2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289152.6100157574</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="N4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="P4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,16 +26485,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26503,13 +26503,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-418707.5682996484</v>
+        <v>-419619.0939024635</v>
       </c>
       <c r="C6" t="n">
-        <v>171260.310914896</v>
+        <v>170348.7853120812</v>
       </c>
       <c r="D6" t="n">
-        <v>171260.3109148961</v>
+        <v>170348.7853120813</v>
       </c>
       <c r="E6" t="n">
-        <v>204887.9109148962</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="F6" t="n">
-        <v>204887.9109148963</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="G6" t="n">
-        <v>204887.9109148962</v>
+        <v>203976.3853120811</v>
       </c>
       <c r="H6" t="n">
-        <v>204887.9109148961</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="I6" t="n">
-        <v>204887.9109148962</v>
+        <v>203976.3853120812</v>
       </c>
       <c r="J6" t="n">
-        <v>28464.69172230321</v>
+        <v>27553.16611948807</v>
       </c>
       <c r="K6" t="n">
-        <v>204887.9109148961</v>
+        <v>203976.385312081</v>
       </c>
       <c r="L6" t="n">
-        <v>204887.9109148961</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="M6" t="n">
-        <v>204887.9109148963</v>
+        <v>203976.3853120812</v>
       </c>
       <c r="N6" t="n">
-        <v>204887.9109148961</v>
+        <v>203976.3853120811</v>
       </c>
       <c r="O6" t="n">
-        <v>204887.9109148961</v>
+        <v>203976.3853120814</v>
       </c>
       <c r="P6" t="n">
-        <v>204887.910914896</v>
+        <v>203976.3853120813</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,31 +26805,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31042,10 +31042,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31054,34 +31054,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31218,28 +31218,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -34702,22 +34702,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35428,7 +35428,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35735,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L17" t="n">
         <v>421.5361394435301</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,7 +35972,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36206,7 +36206,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37400,7 +37400,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37625,7 +37625,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898695</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
